--- a/Planilhas/População RACA NACIONAL.xlsx
+++ b/Planilhas/População RACA NACIONAL.xlsx
@@ -446,27 +446,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id_produto</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>População</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>População</t>
+          <t>unidade</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>unidade</t>
+          <t>ano</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ano</t>
+          <t>Trimestre</t>
         </is>
       </c>
     </row>
@@ -483,28 +483,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>92248</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92248</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>01/01/201201</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,28 +516,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>91208</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91208</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>01/01/201202</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -557,28 +549,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>90763</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90763</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>01/01/201203</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -594,28 +582,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>90074</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90074</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>01/01/201204</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +615,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>89691</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89691</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>01/01/201301</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -668,28 +648,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>90270</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90270</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>01/01/201302</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -705,28 +681,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>91467</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91467</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>01/01/201303</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -742,28 +714,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>91059</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91059</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>01/01/201304</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -779,28 +747,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>91336</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91336</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>01/01/201401</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -816,28 +780,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>91240</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91240</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>01/01/201402</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -853,28 +813,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>90450</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90450</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>01/01/201403</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -890,28 +846,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>90546</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90546</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>01/01/201404</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -927,28 +879,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>90187</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90187</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>01/01/201501</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -964,28 +912,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>91158</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91158</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>01/01/201502</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1001,28 +945,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>91347</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91347</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>01/01/201503</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1038,28 +978,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>91283</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91283</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>01/01/201504</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1075,28 +1011,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>90401</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90401</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>01/01/201601</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1112,28 +1044,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>91150</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91150</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>01/01/201602</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1149,28 +1077,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>90555</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90555</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>01/01/201603</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1110,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>89196</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89196</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>01/01/201604</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1223,28 +1143,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>89167</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89167</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>01/01/201701</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1176,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>89378</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89378</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>01/01/201702</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1297,28 +1209,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>89884</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89884</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>01/01/201703</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1334,28 +1242,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>88963</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88963</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>01/01/201704</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1371,28 +1275,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>88658</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>88658</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>01/01/201801</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1408,28 +1308,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>88868</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88868</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>01/01/201802</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1445,28 +1341,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>89250</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89250</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>01/01/201803</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1482,28 +1374,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>88589</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>88589</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>01/01/201804</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1519,28 +1407,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>88557</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>88557</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>01/01/201901</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1556,28 +1440,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>88837</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88837</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>01/01/201902</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1593,28 +1473,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>89031</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89031</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>01/01/201903</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1630,28 +1506,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>87849</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>87849</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>01/01/201904</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1667,28 +1539,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>88817</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88817</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>01/01/202001</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1704,28 +1572,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>90512</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90512</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>01/01/202002</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1741,28 +1605,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>91320</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>91320</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>01/01/202003</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1778,28 +1638,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>92184</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>92184</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>01/01/202004</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1815,28 +1671,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>92289</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92289</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>01/01/202101</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1852,28 +1704,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>92240</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>92240</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>01/01/202102</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1889,28 +1737,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>92029</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>92029</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>01/01/202103</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1926,28 +1770,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>91770</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91770</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>01/01/202104</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1963,28 +1803,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>91811</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>91811</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>01/01/202201</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2000,28 +1836,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>92228</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>92228</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>01/01/202202</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2037,28 +1869,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>92475</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>92475</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>01/01/202203</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2074,28 +1902,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>92033</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>92033</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>01/01/202204</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2111,28 +1935,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>91706</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>91706</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>01/01/202301</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2148,28 +1968,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>92152</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>92152</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>01/01/202302</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2185,28 +2001,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>92202</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>92202</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>01/01/202303</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2222,28 +2034,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>Branca</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>91784</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>91784</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>01/01/202304</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2259,28 +2067,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>14921</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>01/01/201201</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2296,28 +2100,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>13845</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13845</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>01/01/201202</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2333,28 +2133,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>13812</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13812</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>01/01/201203</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2370,28 +2166,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>13790</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13790</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>01/01/201204</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2407,28 +2199,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>13583</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13583</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>01/01/201301</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2444,28 +2232,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>13332</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13332</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>01/01/201302</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2481,28 +2265,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>13931</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13931</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>01/01/201303</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2518,28 +2298,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>14016</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14016</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>01/01/201304</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2331,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>14042</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14042</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>01/01/201401</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2592,28 +2364,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>14032</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14032</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>01/01/201402</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2629,28 +2397,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>14266</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14266</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>01/01/201403</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2666,28 +2430,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>14254</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14254</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>01/01/201404</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2703,28 +2463,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>14229</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14229</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>01/01/201501</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2740,28 +2496,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>14236</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14236</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>01/01/201502</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2777,28 +2529,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>14729</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14729</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>01/01/201503</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2814,28 +2562,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>15856</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15856</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>01/01/201504</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2851,28 +2595,24 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>15748</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15748</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>01/01/201601</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2888,28 +2628,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>15834</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>01/01/201602</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2925,28 +2661,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>15961</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15961</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>01/01/201603</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2962,28 +2694,24 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>16770</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>16770</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>01/01/201604</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2999,28 +2727,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>17123</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17123</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>01/01/201701</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3036,28 +2760,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>16796</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>16796</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>01/01/201702</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3073,28 +2793,24 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>16954</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>16954</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>01/01/201703</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3110,28 +2826,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>18043</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>18043</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>01/01/201704</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3147,28 +2859,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>18003</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>18003</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>01/01/201801</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3184,28 +2892,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>18236</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>18236</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>01/01/201802</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3221,28 +2925,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>18318</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>18318</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>01/01/201803</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3258,28 +2958,24 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>19258</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19258</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>01/01/201804</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3295,28 +2991,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>19365</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>19365</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>01/01/201901</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3332,28 +3024,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>19346</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>19346</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>01/01/201902</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3369,28 +3057,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>18991</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>18991</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>01/01/201903</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3406,28 +3090,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>19965</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>19965</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>01/01/201904</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -3443,28 +3123,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>19514</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>19514</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>01/01/202001</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3480,28 +3156,24 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>18458</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>18458</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>01/01/202002</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -3517,28 +3189,24 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>18534</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18534</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>01/01/202003</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3554,28 +3222,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>18668</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>18668</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>01/01/202004</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3591,28 +3255,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>18628</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>18628</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>01/01/202101</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3628,28 +3288,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>18898</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>18898</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>01/01/202102</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3665,28 +3321,24 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>20030</v>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>20030</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>01/01/202103</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -3702,28 +3354,24 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>20857</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>20857</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>01/01/202104</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -3739,28 +3387,24 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>21431</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21431</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>01/01/202201</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3776,28 +3420,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>21723</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>21723</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>01/01/202202</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -3813,28 +3453,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>22058</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>22058</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>01/01/202203</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3850,28 +3486,24 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>22347</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>22347</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>01/01/202204</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -3887,28 +3519,24 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>22577</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>22577</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>01/01/202301</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3924,28 +3552,24 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>22283</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>22283</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>01/01/202302</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -3961,28 +3585,24 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>22219</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>22219</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>01/01/202303</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -3998,28 +3618,24 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2777</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>Preta</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>22618</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>22618</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>01/01/202304</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -4035,28 +3651,24 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>88400</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>88400</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>01/01/201201</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4072,28 +3684,24 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>91212</v>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>91212</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>01/01/201202</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4109,28 +3717,24 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>91990</v>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>91990</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>01/01/201203</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -4146,28 +3750,24 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>93343</v>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>93343</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>01/01/201204</t>
-        </is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -4183,28 +3783,24 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>94388</v>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>94388</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>01/01/201301</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4220,28 +3816,24 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>94461</v>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>94461</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>01/01/201302</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -4257,28 +3849,24 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>92960</v>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>92960</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>01/01/201303</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -4294,28 +3882,24 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>93831</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>93831</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>01/01/201304</t>
-        </is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -4331,28 +3915,24 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>93873</v>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>93873</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>01/01/201401</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4368,28 +3948,24 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>94535</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>94535</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>01/01/201402</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4405,28 +3981,24 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D108" t="n">
+        <v>95172</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>95172</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>01/01/201403</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -4442,28 +4014,24 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v>95478</v>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>95478</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>01/01/201404</t>
-        </is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -4479,28 +4047,24 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D110" t="n">
+        <v>96293</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>96293</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>01/01/201501</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4516,28 +4080,24 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D111" t="n">
+        <v>95748</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>95748</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>01/01/201502</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -4553,28 +4113,24 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D112" t="n">
+        <v>95424</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>95424</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>01/01/201503</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -4590,28 +4146,24 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D113" t="n">
+        <v>94800</v>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>94800</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>01/01/201504</t>
-        </is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -4627,28 +4179,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D114" t="n">
+        <v>96274</v>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>96274</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>01/01/201601</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4664,28 +4212,24 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D115" t="n">
+        <v>95725</v>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>95725</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>01/01/201602</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4701,28 +4245,24 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D116" t="n">
+        <v>96491</v>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>96491</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>01/01/201603</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -4738,28 +4278,24 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D117" t="n">
+        <v>97494</v>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>97494</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>01/01/201604</t>
-        </is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -4775,28 +4311,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D118" t="n">
+        <v>97595</v>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>97595</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>01/01/201701</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4812,28 +4344,24 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D119" t="n">
+        <v>98204</v>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>98204</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>01/01/201702</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -4849,28 +4377,24 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D120" t="n">
+        <v>97821</v>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>97821</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>01/01/201703</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -4886,28 +4410,24 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D121" t="n">
+        <v>98071</v>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>98071</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>01/01/201704</t>
-        </is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -4923,28 +4443,24 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v>98915</v>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>98915</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>01/01/201801</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4960,28 +4476,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D123" t="n">
+        <v>98346</v>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>98346</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>01/01/201802</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -4997,28 +4509,24 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D124" t="n">
+        <v>98317</v>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>98317</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>01/01/201803</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
@@ -5034,28 +4542,24 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D125" t="n">
+        <v>98458</v>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>98458</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>01/01/201804</t>
-        </is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -5071,28 +4575,24 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D126" t="n">
+        <v>98908</v>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>98908</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>01/01/201901</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5108,28 +4608,24 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D127" t="n">
+        <v>98953</v>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>98953</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>01/01/201902</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -5145,28 +4641,24 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D128" t="n">
+        <v>99650</v>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>99650</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>01/01/201903</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -5182,28 +4674,24 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D129" t="n">
+        <v>100154</v>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>100154</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>01/01/201904</t>
-        </is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -5219,28 +4707,24 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v>100124</v>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>100124</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>01/01/202001</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5256,28 +4740,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v>99973</v>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>99973</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>01/01/202002</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -5293,28 +4773,24 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D132" t="n">
+        <v>99394</v>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>99394</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>01/01/202003</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -5330,28 +4806,24 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D133" t="n">
+        <v>98609</v>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>98609</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>01/01/202004</t>
-        </is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -5367,28 +4839,24 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D134" t="n">
+        <v>98947</v>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>98947</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>01/01/202101</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5404,28 +4872,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D135" t="n">
+        <v>99003</v>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>99003</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>01/01/202102</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -5441,28 +4905,24 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D136" t="n">
+        <v>98425</v>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>98425</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>01/01/202103</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -5478,28 +4938,24 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D137" t="n">
+        <v>98062</v>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>98062</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>01/01/202104</t>
-        </is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -5515,28 +4971,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D138" t="n">
+        <v>97931</v>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>97931</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>01/01/202201</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5552,28 +5004,24 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D139" t="n">
+        <v>97619</v>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>97619</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>01/01/202202</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -5589,28 +5037,24 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D140" t="n">
+        <v>97301</v>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>97301</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>01/01/202203</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -5626,28 +5070,24 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D141" t="n">
+        <v>97833</v>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>97833</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>01/01/202204</t>
-        </is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -5663,28 +5103,24 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D142" t="n">
+        <v>98319</v>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>98319</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>01/01/202301</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5700,28 +5136,24 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D143" t="n">
+        <v>98472</v>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>98472</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>01/01/202302</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -5737,28 +5169,24 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D144" t="n">
+        <v>98849</v>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>98849</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>01/01/202303</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -5774,28 +5202,24 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2779</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
           <t>Parda</t>
         </is>
       </c>
+      <c r="D145" t="n">
+        <v>99289</v>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>99289</t>
+          <t>Mil pessoas</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mil pessoas</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>01/01/202304</t>
-        </is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
